--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>new gentic with n = 800</t>
   </si>
@@ -66,11 +66,26 @@
   <si>
     <t>in progress</t>
   </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Betweenness</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Closeness</t>
+  </si>
+  <si>
+    <t>Eigenvector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,6 +137,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,7 +159,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -156,7 +174,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16220438427917894"/>
+          <c:y val="4.7108592148189014E-2"/>
+          <c:w val="0.82195688281945323"/>
+          <c:h val="0.74771459257092066"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -169,7 +197,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -180,11 +208,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -257,17 +285,30 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Hub Removal - Global</c:v>
+            <c:strRef>
+              <c:f>E.Coli!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -278,52 +319,19 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>E.Coli!$A$4:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>E.Coli!$Z$4:$Z$11</c:f>
+              <c:f>E.Coli!$AD$4:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -337,24 +345,263 @@
                   <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1823</c:v>
+                  <c:v>1814</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1650</c:v>
+                  <c:v>1654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1481</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1259</c:v>
+                  <c:v>1282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1059</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>E.Coli!$AE$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betweenness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AE$4:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>E.Coli!$AF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closeness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AF$4:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>E.Coli!$AG$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eigenvector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AG$4:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -376,6 +623,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Removed Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -398,7 +701,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -441,6 +744,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of the Largest Connected Component</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -457,7 +816,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -486,7 +845,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16608016870461387"/>
+          <c:y val="0.71490184714237359"/>
+          <c:w val="0.61769414121537325"/>
+          <c:h val="5.7526891708622067E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -500,7 +868,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -540,7 +908,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -554,7 +922,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -567,70 +935,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percentage of essential genes in the critical</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> nodes found by GA vs Random</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13011585794338637"/>
+          <c:y val="4.6390942295380717E-2"/>
+          <c:w val="0.80834285302437869"/>
+          <c:h val="0.747945844599334"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -731,12 +1048,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Random</c:v>
+            <c:v>Random Sample</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -796,6 +1118,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -824,7 +1151,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -837,12 +1164,902 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-336117088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-336117088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage of Essential Proteins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-336125248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68674246382817694"/>
+          <c:y val="0.61677852318324744"/>
+          <c:w val="0.24918430962720048"/>
+          <c:h val="0.16107475476028038"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Genetic Algorithm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$O$4:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betweenness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$P$4:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closeness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$Q$4:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3394</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eigenvector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$R$4:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-336112192"/>
+        <c:axId val="-336112736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-336112192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -910,7 +2127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336117088"/>
+        <c:crossAx val="-336112736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,9 +2135,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336117088"/>
+        <c:axId val="-336112736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -939,36 +2157,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Percentage of Essential Genes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -999,7 +2187,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1030,7 +2218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336125248"/>
+        <c:crossAx val="-336112192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,8 +2299,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1229,442 +2417,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>S.cerevisiae!$B$4:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4220</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3836</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3464</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Hub Removal - Global</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>S.cerevisiae!$K$4:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4693</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4358</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-336112192"/>
-        <c:axId val="-336112736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-336112192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-336112736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-336112736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="2500"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-336112192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Genetic Algorithm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>S.cerevisiae!$D$4:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
@@ -1691,7 +2443,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.30249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1730,6 +2482,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD7E-4ECF-8DD0-4021FDD54143}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1894,6 +2651,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4236,16 +4998,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4266,16 +5028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4301,16 +5063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4331,16 +5093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270782</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>98650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4625,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,14 +5399,26 @@
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="30" max="30" width="9.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4663,8 +5437,20 @@
       <c r="AB3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -4746,8 +5532,20 @@
       <c r="AB4">
         <v>2325</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD4" s="1">
+        <v>2307</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2245</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2328</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -4829,8 +5627,20 @@
       <c r="AB5">
         <v>2161</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD5" s="1">
+        <v>2170</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2162</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -4912,8 +5722,20 @@
       <c r="AB6">
         <v>1970</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1788</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2007</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -4995,8 +5817,20 @@
       <c r="AB7">
         <v>1701</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD7" s="1">
+        <v>1814</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1587</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1842</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -5078,8 +5912,20 @@
       <c r="AB8">
         <v>1521</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD8" s="1">
+        <v>1654</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1436</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1663</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -5161,8 +6007,20 @@
       <c r="AB9">
         <v>1292</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1">
+        <v>1478</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1319</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1515</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>350</v>
       </c>
@@ -5244,8 +6102,20 @@
       <c r="AB10">
         <v>1052</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1">
+        <v>1282</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1137</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1346</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>400</v>
       </c>
@@ -5327,8 +6197,20 @@
       <c r="AB11">
         <v>685</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1">
+        <v>1036</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>962</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1197</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12">
         <v>161</v>
@@ -5337,7 +6219,7 @@
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>450</v>
       </c>
@@ -5425,6 +6307,9 @@
       <c r="Z44"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AD2:AG2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5432,24 +6317,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5462,8 +6358,20 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -5497,8 +6405,20 @@
       <c r="M4">
         <v>4692</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>4693</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4601</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4806</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -5532,8 +6452,20 @@
       <c r="M5">
         <v>4498</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>4484</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4391</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4617</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -5567,8 +6499,20 @@
       <c r="M6">
         <v>4315</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>4359</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4205</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4448</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -5599,8 +6543,20 @@
       <c r="K7" s="1">
         <v>4215</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>4218</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4071</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4337</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -5631,8 +6587,20 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <v>4087</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3935</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4194</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -5663,8 +6631,20 @@
       <c r="K9" s="1">
         <v>3952</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>3953</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3785</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4092</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>350</v>
       </c>
@@ -5680,25 +6660,61 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>3827</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3647</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3975</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>400</v>
       </c>
+      <c r="B11" s="1">
+        <v>3147</v>
+      </c>
+      <c r="C11">
+        <v>121</v>
+      </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="E11">
+        <v>151</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="e">
+        <v>0.3775</v>
+      </c>
+      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55371900826446285</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3701</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3510</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3876</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>450</v>
       </c>
@@ -5714,8 +6730,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>3570</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3378</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3764</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -5731,8 +6759,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>3438</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3239</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3636</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>550</v>
       </c>
@@ -5748,8 +6788,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <v>3307</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3122</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3544</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>600</v>
       </c>
@@ -5765,8 +6817,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <v>3168</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2987</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3394</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>650</v>
       </c>
@@ -5782,8 +6846,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>3025</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2863</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3285</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>700</v>
       </c>
@@ -5799,8 +6875,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>2883</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2716</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3198</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>750</v>
       </c>
@@ -5816,8 +6904,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>2727</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2581</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3095</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>800</v>
       </c>
@@ -5833,8 +6933,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>2563</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2464</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2994</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>850</v>
       </c>
@@ -5850,8 +6962,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>2433</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2312</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2893</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>900</v>
       </c>
@@ -5867,8 +6991,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>2273</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2180</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2764</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>950</v>
       </c>
@@ -5884,8 +7020,20 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>2094</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2648</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50</v>
       </c>
@@ -5899,7 +7047,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -5908,7 +7056,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -5917,7 +7065,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200</v>
       </c>
@@ -5926,7 +7074,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>250</v>
       </c>
@@ -5935,7 +7083,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -6056,6 +7204,9 @@
   <sortState ref="A1:B371">
     <sortCondition ref="B1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="O2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6066,7 +7217,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,17 +7308,29 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>450</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>500</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -1585,6 +1585,9 @@
                 <c:pt idx="7">
                   <c:v>3147</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3039</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2446,7 +2449,7 @@
                   <c:v>0.30249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5390,7 +5393,7 @@
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6718,17 +6721,29 @@
       <c r="A12">
         <v>450</v>
       </c>
+      <c r="B12" s="1">
+        <v>3039</v>
+      </c>
+      <c r="C12">
+        <v>129</v>
+      </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="E12">
+        <v>171</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="e">
+        <v>0.38</v>
+      </c>
+      <c r="G12">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.55038759689922478</v>
       </c>
       <c r="O12" s="1">
         <v>3570</v>
@@ -7217,7 +7232,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7319,7 +7334,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="E.Coli" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -643,8 +643,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Removed Nodes</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Number of Removed Nodes (B)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -663,7 +663,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -727,6 +727,7 @@
         <c:axId val="-336124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -751,7 +752,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -764,7 +765,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Size of the Largest Connected Component</a:t>
                 </a:r>
               </a:p>
@@ -784,7 +785,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5392,7 +5393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6322,8 +6323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E.Coli" sheetId="1" r:id="rId1"/>
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>new gentic with n = 800</t>
   </si>
@@ -81,11 +81,14 @@
   <si>
     <t>Eigenvector</t>
   </si>
+  <si>
+    <t>Mrs. A.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -179,9 +182,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16220438427917894"/>
+          <c:x val="0.11624073563270687"/>
           <c:y val="4.7108592148189014E-2"/>
-          <c:w val="0.82195688281945323"/>
+          <c:w val="0.86792057743627582"/>
           <c:h val="0.74771459257092066"/>
         </c:manualLayout>
       </c:layout>
@@ -285,7 +288,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -363,7 +366,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -441,7 +444,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -519,7 +522,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -597,7 +600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -613,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-336114912"/>
-        <c:axId val="-336124160"/>
+        <c:axId val="-1530395200"/>
+        <c:axId val="-1530402272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-336114912"/>
+        <c:axId val="-1530395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336124160"/>
+        <c:crossAx val="-1530402272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336124160"/>
+        <c:axId val="-1530402272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -771,7 +774,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2629845909623873E-2"/>
+              <c:y val="4.7108565700437449E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -832,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336114912"/>
+        <c:crossAx val="-1530395200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,9 +860,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16608016870461387"/>
-          <c:y val="0.71490184714237359"/>
-          <c:w val="0.61769414121537325"/>
+          <c:x val="0.16717451629767752"/>
+          <c:y val="0.72996190711851083"/>
+          <c:w val="0.70196090191199112"/>
           <c:h val="5.7526891708622067E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -869,7 +879,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -923,7 +933,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1049,7 +1059,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1119,7 +1129,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1135,11 +1145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-336125248"/>
-        <c:axId val="-336117088"/>
+        <c:axId val="-1530401728"/>
+        <c:axId val="-1344993056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-336125248"/>
+        <c:axId val="-1530401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1238,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336117088"/>
+        <c:crossAx val="-1344993056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1246,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336117088"/>
+        <c:axId val="-1344993056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1301,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1353,7 +1361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336125248"/>
+        <c:crossAx val="-1530401728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,7 +1452,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1459,7 +1467,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10774980404821896"/>
+          <c:y val="3.7353700235619763E-2"/>
+          <c:w val="0.87648195309680133"/>
+          <c:h val="0.80760949185149322"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1578,7 +1596,7 @@
                   <c:v>3836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3663</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3464</c:v>
@@ -1593,7 +1611,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1704,7 +1722,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1815,7 +1833,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1926,7 +1944,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2037,7 +2055,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2053,17 +2071,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-336112192"/>
-        <c:axId val="-336112736"/>
+        <c:axId val="-1344992512"/>
+        <c:axId val="-1301776576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-336112192"/>
+        <c:axId val="-1344992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Removed Nodes (B)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2116,7 +2164,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2131,7 +2179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336112736"/>
+        <c:crossAx val="-1301776576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2139,9 +2187,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336112736"/>
+        <c:axId val="-1301776576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
           <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2161,7 +2210,44 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Size of the Largest Connected Component</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6133694670280035E-3"/>
+              <c:y val="6.9306407901543951E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2175,7 +2261,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2207,7 +2293,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2222,7 +2308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336112192"/>
+        <c:crossAx val="-1344992512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,7 +2322,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1640387418221887E-2"/>
+          <c:y val="0.7646947612561088"/>
+          <c:w val="0.85543220410142218"/>
+          <c:h val="0.11333652769414568"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2250,7 +2345,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2304,7 +2399,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2438,7 +2533,7 @@
                   <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.31</c:v>
@@ -2486,7 +2581,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2655,7 +2750,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2671,11 +2766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-336123072"/>
-        <c:axId val="-336121984"/>
+        <c:axId val="-1301776032"/>
+        <c:axId val="-1301777120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-336123072"/>
+        <c:axId val="-1301776032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336121984"/>
+        <c:crossAx val="-1301777120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2726,7 +2821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336121984"/>
+        <c:axId val="-1301777120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +2872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336123072"/>
+        <c:crossAx val="-1301776032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,15 +5163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127226</xdr:rowOff>
+      <xdr:rowOff>127225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>49910</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>40357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5098,15 +5193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>270782</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>98650</xdr:rowOff>
+      <xdr:colOff>480332</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>240846</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:colOff>450396</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>170088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5393,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,8 +6418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,28 +6660,28 @@
         <v>250</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3663</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="e">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.52564102564102566</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -7233,7 +7328,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +7389,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7313,7 +7408,10 @@
         <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,18 +7444,30 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>550</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>600</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7373,10 +7483,22 @@
       <c r="A15" s="1">
         <v>750</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>800</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,7 +288,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -366,7 +366,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -444,7 +444,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -522,7 +522,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -600,7 +600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -652,7 +652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -933,7 +932,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1059,7 +1058,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1129,7 +1128,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1452,7 +1451,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1611,7 +1610,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1722,7 +1721,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1833,7 +1832,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1944,7 +1943,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2055,7 +2054,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2399,7 +2398,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2581,7 +2580,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2750,7 +2749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -6418,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="E.Coli" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,7 +288,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -366,7 +366,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -444,7 +444,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -522,7 +522,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -600,7 +600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -616,11 +616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1530395200"/>
-        <c:axId val="-1530402272"/>
+        <c:axId val="805530304"/>
+        <c:axId val="805541184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530395200"/>
+        <c:axId val="805530304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,6 +652,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -718,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530402272"/>
+        <c:crossAx val="805541184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1530402272"/>
+        <c:axId val="805541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -841,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530395200"/>
+        <c:crossAx val="805530304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,7 +933,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1058,7 +1059,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1128,7 +1129,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1144,11 +1145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1530401728"/>
-        <c:axId val="-1344993056"/>
+        <c:axId val="990575232"/>
+        <c:axId val="990578496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530401728"/>
+        <c:axId val="990575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,6 +1181,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1246,7 +1248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1344993056"/>
+        <c:crossAx val="990578496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1344993056"/>
+        <c:axId val="990578496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,6 +1302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1360,7 +1363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530401728"/>
+        <c:crossAx val="990575232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,7 +1454,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1610,7 +1613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1721,7 +1724,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1832,7 +1835,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1943,7 +1946,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2054,7 +2057,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2070,11 +2073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1344992512"/>
-        <c:axId val="-1301776576"/>
+        <c:axId val="990579040"/>
+        <c:axId val="990579584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1344992512"/>
+        <c:axId val="990579040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301776576"/>
+        <c:crossAx val="990579584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1301776576"/>
+        <c:axId val="990579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2307,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1344992512"/>
+        <c:crossAx val="990579040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,7 +2401,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2580,7 +2583,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2749,7 +2752,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2765,11 +2768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1301776032"/>
-        <c:axId val="-1301777120"/>
+        <c:axId val="990407584"/>
+        <c:axId val="1036274496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1301776032"/>
+        <c:axId val="990407584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301777120"/>
+        <c:crossAx val="1036274496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2820,7 +2823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1301777120"/>
+        <c:axId val="1036274496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301776032"/>
+        <c:crossAx val="990407584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5487,8 +5490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E.Coli" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>new gentic with n = 800</t>
   </si>
@@ -84,11 +84,32 @@
   <si>
     <t>Mrs. A.</t>
   </si>
+  <si>
+    <t>Essentials</t>
+  </si>
+  <si>
+    <t>genetic algorithm</t>
+  </si>
+  <si>
+    <t>Degree_Centrality</t>
+  </si>
+  <si>
+    <t>Betweenness_Centrality</t>
+  </si>
+  <si>
+    <t>Closeness_Centrality</t>
+  </si>
+  <si>
+    <t>Eigenvector_Centrality</t>
+  </si>
+  <si>
+    <t>Genetic_Algorithm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +164,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +183,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF07C7C"/>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -183,9 +222,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11624073563270687"/>
-          <c:y val="4.7108592148189014E-2"/>
+          <c:y val="0.14853211805555552"/>
           <c:w val="0.86792057743627582"/>
-          <c:h val="0.74771459257092066"/>
+          <c:h val="0.71023194444444449"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -195,7 +234,118 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Genetic Algorithm</c:v>
+            <c:v>Genetic_Algorithm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>E.Coli!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>E.Coli!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -221,117 +371,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>E.Coli!$A$4:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>E.Coli!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1869</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>E.Coli!$AD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Degree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>E.Coli!$AD$4:$AD$11</c:f>
@@ -366,7 +405,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -381,7 +420,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Betweenness</c:v>
+                  <c:v>Betweenness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,7 +428,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -400,11 +439,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -444,7 +483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -459,7 +498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Closeness</c:v>
+                  <c:v>Closeness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,7 +506,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -478,11 +517,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -522,7 +561,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -537,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eigenvector</c:v>
+                  <c:v>Eigenvector_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,7 +639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -616,11 +655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="805530304"/>
-        <c:axId val="805541184"/>
+        <c:axId val="-1530395200"/>
+        <c:axId val="-1530402272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="805530304"/>
+        <c:axId val="-1530395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="805541184"/>
+        <c:crossAx val="-1530402272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="805541184"/>
+        <c:axId val="-1530402272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -778,8 +817,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2629845909623873E-2"/>
-              <c:y val="4.7108565700437449E-2"/>
+              <c:x val="1.5894040189005389E-2"/>
+              <c:y val="0.1529418402777778"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -842,7 +881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="805530304"/>
+        <c:crossAx val="-1530395200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,17 +894,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16717451629767752"/>
-          <c:y val="0.72996190711851083"/>
-          <c:w val="0.70196090191199112"/>
-          <c:h val="5.7526891708622067E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -933,7 +963,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -953,10 +983,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13011585794338637"/>
-          <c:y val="4.6390942295380717E-2"/>
-          <c:w val="0.80834285302437869"/>
-          <c:h val="0.747945844599334"/>
+          <c:x val="9.9031023864870352E-2"/>
+          <c:y val="0.14781458333333336"/>
+          <c:w val="0.87317055596078719"/>
+          <c:h val="0.70384861111111108"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -966,12 +996,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Genetic Algorithm</c:v>
+            <c:v>Genetic_Algorithm</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -982,11 +1012,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1059,17 +1089,297 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Random Sample</c:v>
+            <c:v>Degree_Centrality</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AP$4:$AP$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40250000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEDC-4968-832D-51B0EF2F0D81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Betweenness_Centrality</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AQ$4:$AQ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEDC-4968-832D-51B0EF2F0D81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Closeness_Centrality</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AR$4:$AR$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BEDC-4968-832D-51B0EF2F0D81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Eigenvector_Centrality</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AS$4:$AS$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEDC-4968-832D-51B0EF2F0D81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Random_Sample</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1129,7 +1439,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1145,11 +1455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="990575232"/>
-        <c:axId val="990578496"/>
+        <c:axId val="-1530401728"/>
+        <c:axId val="-1344993056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990575232"/>
+        <c:axId val="-1530401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,9 +1485,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Nodes</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Removed Nodes (B)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1248,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990578496"/>
+        <c:crossAx val="-1344993056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990578496"/>
+        <c:axId val="-1344993056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1598,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1296,13 +1611,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Percentage of Essential Proteins</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.120110009068487E-2"/>
+              <c:y val="0.22812447916666667"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1316,7 +1638,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1363,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990575232"/>
+        <c:crossAx val="-1530401728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,17 +1698,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.68674246382817694"/>
-          <c:y val="0.61677852318324744"/>
-          <c:w val="0.24918430962720048"/>
-          <c:h val="0.16107475476028038"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1400,7 +1713,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1454,7 +1767,531 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9031023864870352E-2"/>
+          <c:y val="0.14781458333333336"/>
+          <c:w val="0.87317055596078719"/>
+          <c:h val="0.70384861111111108"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Genetic_Algorithm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>E.Coli!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5222-4D0F-93B2-8C255AAE4675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Random_Sample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$Z$35:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5222-4D0F-93B2-8C255AAE4675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1530401728"/>
+        <c:axId val="-1344993056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1530401728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Removed Nodes (B)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1344993056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1344993056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percentage of Essential Proteins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.120110009068487E-2"/>
+              <c:y val="0.22812447916666667"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1530401728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1603,17 +2440,35 @@
                 <c:pt idx="5">
                   <c:v>3464</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3356</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1628,7 +2483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Degree</c:v>
+                  <c:v>Degree_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1724,7 +2579,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1739,7 +2594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Betweenness</c:v>
+                  <c:v>Betweenness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1835,7 +2690,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1850,7 +2705,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Closeness</c:v>
+                  <c:v>Closeness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1946,7 +2801,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -1961,7 +2816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eigenvector</c:v>
+                  <c:v>Eigenvector_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2057,7 +2912,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2073,11 +2928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="990579040"/>
-        <c:axId val="990579584"/>
+        <c:axId val="-1344992512"/>
+        <c:axId val="-1301776576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990579040"/>
+        <c:axId val="-1344992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +3036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990579584"/>
+        <c:crossAx val="-1301776576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2189,7 +3044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990579584"/>
+        <c:axId val="-1301776576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2310,7 +3165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990579040"/>
+        <c:crossAx val="-1344992512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2400,8 +3255,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2424,12 +3279,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Genetic Algorithm</c:v>
+            <c:strRef>
+              <c:f>S.cerevisiae!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2440,85 +3303,19 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>S.cerevisiae!$D$4:$D$22</c:f>
+              <c:f>S.cerevisiae!$Z$4:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2541,7 +3338,7 @@
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.26857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.30249999999999999</c:v>
@@ -2550,13 +3347,13 @@
                   <c:v>0.28666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.26545454545454544</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.31166666666666665</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2583,17 +3380,461 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD7E-4ECF-8DD0-4021FDD54143}"/>
+              <c16:uniqueId val="{00000004-72E6-4395-90A8-F177BBD9550A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$AA$4:$AA$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39818181818181819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72E6-4395-90A8-F177BBD9550A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betweenness_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$AB$4:$AB$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37714285714285717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3418181818181818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-72E6-4395-90A8-F177BBD9550A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closeness_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$AC$4:$AC$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-72E6-4395-90A8-F177BBD9550A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eigenvector_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$AD$4:$AD$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3511111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Random</c:v>
+            <c:v>Random_Sample</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2752,7 +3993,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -2768,11 +4009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="990407584"/>
-        <c:axId val="1036274496"/>
+        <c:axId val="-1301776032"/>
+        <c:axId val="-1301777120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990407584"/>
+        <c:axId val="-1301776032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +4056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1036274496"/>
+        <c:crossAx val="-1301777120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2823,7 +4064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036274496"/>
+        <c:axId val="-1301777120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +4115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990407584"/>
+        <c:crossAx val="-1301776032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,6 +4127,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3083,6 +4356,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5095,20 +6408,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>118783</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>173586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5130,15 +6946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>535131</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>700325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5157,6 +6973,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>612869</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5170,8 +7018,8 @@
       <xdr:rowOff>127225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>49910</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>40357</xdr:rowOff>
     </xdr:to>
@@ -5194,16 +7042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>480332</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>127225</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>255196</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>450396</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>170088</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5488,10 +7336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="P67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,26 +7348,49 @@
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AD2" s="5" t="s">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AI2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AO2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5539,19 +7410,49 @@
         <v>6</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AK3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AL3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AM3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="AO3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -5645,8 +7546,43 @@
       <c r="AG4" s="1">
         <v>2386</v>
       </c>
+      <c r="AI4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>26</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="7">
+        <f>AI4/A4</f>
+        <v>0.3</v>
+      </c>
+      <c r="AP4" s="7">
+        <f>AJ4/A4</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AQ4" s="7">
+        <f>AK4/A4</f>
+        <v>0.54</v>
+      </c>
+      <c r="AR4" s="7">
+        <f>AL4/A4</f>
+        <v>0.52</v>
+      </c>
+      <c r="AS4" s="7">
+        <f>AM4/A4</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -5740,8 +7676,43 @@
       <c r="AG5" s="1">
         <v>2226</v>
       </c>
+      <c r="AI5" s="5">
+        <v>32</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="7">
+        <f t="shared" ref="AO5:AO11" si="9">AI5/A5</f>
+        <v>0.32</v>
+      </c>
+      <c r="AP5" s="7">
+        <f t="shared" ref="AP5:AP11" si="10">AJ5/A5</f>
+        <v>0.54</v>
+      </c>
+      <c r="AQ5" s="7">
+        <f t="shared" ref="AQ5:AQ11" si="11">AK5/A5</f>
+        <v>0.45</v>
+      </c>
+      <c r="AR5" s="7">
+        <f t="shared" ref="AR5:AR11" si="12">AL5/A5</f>
+        <v>0.5</v>
+      </c>
+      <c r="AS5" s="7">
+        <f t="shared" ref="AS5:AS11" si="13">AM5/A5</f>
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -5835,8 +7806,43 @@
       <c r="AG6" s="1">
         <v>2090</v>
       </c>
+      <c r="AI6" s="5">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>74</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>66</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>71</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>75</v>
+      </c>
+      <c r="AO6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="AQ6" s="7">
+        <f t="shared" si="11"/>
+        <v>0.44</v>
+      </c>
+      <c r="AR6" s="7">
+        <f t="shared" si="12"/>
+        <v>0.47333333333333333</v>
+      </c>
+      <c r="AS6" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -5930,8 +7936,43 @@
       <c r="AG7" s="1">
         <v>1933</v>
       </c>
+      <c r="AI7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>80</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>90</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>92</v>
+      </c>
+      <c r="AO7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP7" s="7">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="AQ7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR7" s="7">
+        <f t="shared" si="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="AS7" s="7">
+        <f t="shared" si="13"/>
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -6025,8 +8066,43 @@
       <c r="AG8" s="1">
         <v>1783</v>
       </c>
+      <c r="AI8" s="5">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>92</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>104</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>115</v>
+      </c>
+      <c r="AO8" s="7">
+        <f t="shared" si="9"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AP8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.432</v>
+      </c>
+      <c r="AQ8" s="7">
+        <f t="shared" si="11"/>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AR8" s="7">
+        <f t="shared" si="12"/>
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AS8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -6120,8 +8196,43 @@
       <c r="AG9" s="1">
         <v>1618</v>
       </c>
+      <c r="AI9" s="5">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>130</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>102</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>124</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>138</v>
+      </c>
+      <c r="AO9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="AP9" s="7">
+        <f t="shared" si="10"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AQ9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.34</v>
+      </c>
+      <c r="AR9" s="7">
+        <f t="shared" si="12"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="AS9" s="7">
+        <f t="shared" si="13"/>
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>350</v>
       </c>
@@ -6215,8 +8326,43 @@
       <c r="AG10" s="1">
         <v>1482</v>
       </c>
+      <c r="AI10" s="5">
+        <v>97</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>152</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>115</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>143</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>150</v>
+      </c>
+      <c r="AO10" s="7">
+        <f t="shared" si="9"/>
+        <v>0.27714285714285714</v>
+      </c>
+      <c r="AP10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.43428571428571427</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f t="shared" si="11"/>
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="AR10" s="7">
+        <f t="shared" si="12"/>
+        <v>0.40857142857142859</v>
+      </c>
+      <c r="AS10" s="7">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>400</v>
       </c>
@@ -6310,8 +8456,43 @@
       <c r="AG11" s="1">
         <v>1325</v>
       </c>
+      <c r="AI11" s="5">
+        <v>123</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>161</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>128</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>156</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>166</v>
+      </c>
+      <c r="AO11" s="7">
+        <f t="shared" si="9"/>
+        <v>0.3075</v>
+      </c>
+      <c r="AP11" s="7">
+        <f t="shared" si="10"/>
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="AQ11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.32</v>
+      </c>
+      <c r="AR11" s="7">
+        <f t="shared" si="12"/>
+        <v>0.39</v>
+      </c>
+      <c r="AS11" s="7">
+        <f t="shared" si="13"/>
+        <v>0.41499999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12">
         <v>161</v>
@@ -6320,7 +8501,7 @@
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>450</v>
       </c>
@@ -6408,8 +8589,10 @@
       <c r="Z44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AI2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6418,35 +8601,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O2" s="5" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Z2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6459,20 +8667,50 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
+      <c r="O3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -6518,8 +8756,43 @@
       <c r="R4" s="1">
         <v>4911</v>
       </c>
+      <c r="T4" s="6">
+        <v>19</v>
+      </c>
+      <c r="U4" s="6">
+        <v>23</v>
+      </c>
+      <c r="V4" s="6">
+        <v>23</v>
+      </c>
+      <c r="W4" s="6">
+        <v>25</v>
+      </c>
+      <c r="X4" s="6">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>T4/A4</f>
+        <v>0.38</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>U4/A4</f>
+        <v>0.46</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>V4/A4</f>
+        <v>0.46</v>
+      </c>
+      <c r="AC4" s="7">
+        <f>W4/A4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>X4/A4</f>
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -6565,8 +8838,43 @@
       <c r="R5" s="1">
         <v>4822</v>
       </c>
+      <c r="T5" s="6">
+        <v>35</v>
+      </c>
+      <c r="U5" s="6">
+        <v>44</v>
+      </c>
+      <c r="V5" s="6">
+        <v>45</v>
+      </c>
+      <c r="W5" s="6">
+        <v>47</v>
+      </c>
+      <c r="X5" s="6">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" ref="Z5:Z22" si="3">T5/A5</f>
+        <v>0.35</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" ref="AA5:AA22" si="4">U5/A5</f>
+        <v>0.44</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" ref="AB5:AB22" si="5">V5/A5</f>
+        <v>0.45</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" ref="AC5:AC22" si="6">W5/A5</f>
+        <v>0.47</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" ref="AD5:AD21" si="7">X5/A5</f>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -6612,8 +8920,43 @@
       <c r="R6" s="1">
         <v>4738</v>
       </c>
+      <c r="T6" s="6">
+        <v>42</v>
+      </c>
+      <c r="U6" s="6">
+        <v>66</v>
+      </c>
+      <c r="V6" s="6">
+        <v>61</v>
+      </c>
+      <c r="W6" s="6">
+        <v>63</v>
+      </c>
+      <c r="X6" s="6">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.40666666666666668</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.36666666666666664</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -6656,8 +8999,43 @@
       <c r="R7" s="1">
         <v>4581</v>
       </c>
+      <c r="T7" s="6">
+        <v>61</v>
+      </c>
+      <c r="U7" s="6">
+        <v>79</v>
+      </c>
+      <c r="V7" s="6">
+        <v>77</v>
+      </c>
+      <c r="W7" s="6">
+        <v>81</v>
+      </c>
+      <c r="X7" s="6">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="5"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.36499999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -6700,8 +9078,43 @@
       <c r="R8" s="1">
         <v>4490</v>
       </c>
+      <c r="T8" s="6">
+        <v>78</v>
+      </c>
+      <c r="U8" s="6">
+        <v>98</v>
+      </c>
+      <c r="V8" s="6">
+        <v>94</v>
+      </c>
+      <c r="W8" s="6">
+        <v>95</v>
+      </c>
+      <c r="X8" s="6">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.312</v>
+      </c>
+      <c r="AA8" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AB8" s="7">
+        <f t="shared" si="5"/>
+        <v>0.376</v>
+      </c>
+      <c r="AC8" s="7">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="AD8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -6744,10 +9157,48 @@
       <c r="R9" s="1">
         <v>4376</v>
       </c>
+      <c r="T9" s="6">
+        <v>93</v>
+      </c>
+      <c r="U9" s="6">
+        <v>118</v>
+      </c>
+      <c r="V9" s="6">
+        <v>108</v>
+      </c>
+      <c r="W9" s="6">
+        <v>105</v>
+      </c>
+      <c r="X9" s="6">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="AB9" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+      <c r="AC9" s="7">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="AD9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>350</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3356</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -6773,8 +9224,43 @@
       <c r="R10" s="1">
         <v>4257</v>
       </c>
+      <c r="T10" s="6">
+        <v>94</v>
+      </c>
+      <c r="U10" s="6">
+        <v>133</v>
+      </c>
+      <c r="V10" s="6">
+        <v>132</v>
+      </c>
+      <c r="W10" s="6">
+        <v>120</v>
+      </c>
+      <c r="X10" s="6">
+        <v>123</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.26857142857142857</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.37714285714285717</v>
+      </c>
+      <c r="AC10" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="AD10" s="7">
+        <f t="shared" si="7"/>
+        <v>0.35142857142857142</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>400</v>
       </c>
@@ -6814,8 +9300,43 @@
       <c r="R11" s="1">
         <v>4119</v>
       </c>
+      <c r="T11" s="6">
+        <v>121</v>
+      </c>
+      <c r="U11" s="6">
+        <v>152</v>
+      </c>
+      <c r="V11" s="6">
+        <v>146</v>
+      </c>
+      <c r="W11" s="6">
+        <v>142</v>
+      </c>
+      <c r="X11" s="6">
+        <v>140</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AC11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AD11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>450</v>
       </c>
@@ -6855,10 +9376,48 @@
       <c r="R12" s="1">
         <v>4013</v>
       </c>
+      <c r="T12" s="6">
+        <v>129</v>
+      </c>
+      <c r="U12" s="6">
+        <v>173</v>
+      </c>
+      <c r="V12" s="6">
+        <v>161</v>
+      </c>
+      <c r="W12" s="6">
+        <v>162</v>
+      </c>
+      <c r="X12" s="6">
+        <v>158</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="AA12" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38444444444444442</v>
+      </c>
+      <c r="AB12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.35777777777777775</v>
+      </c>
+      <c r="AC12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+      <c r="AD12" s="7">
+        <f t="shared" si="7"/>
+        <v>0.3511111111111111</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2857</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
@@ -6884,10 +9443,48 @@
       <c r="R13" s="1">
         <v>3851</v>
       </c>
+      <c r="T13" s="6">
+        <v>130</v>
+      </c>
+      <c r="U13" s="6">
+        <v>196</v>
+      </c>
+      <c r="V13" s="6">
+        <v>174</v>
+      </c>
+      <c r="W13" s="6">
+        <v>174</v>
+      </c>
+      <c r="X13" s="6">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" si="7"/>
+        <v>0.35799999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>550</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2699</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
@@ -6913,10 +9510,48 @@
       <c r="R14" s="1">
         <v>3773</v>
       </c>
+      <c r="T14" s="6">
+        <v>146</v>
+      </c>
+      <c r="U14" s="6">
+        <v>219</v>
+      </c>
+      <c r="V14" s="6">
+        <v>188</v>
+      </c>
+      <c r="W14" s="6">
+        <v>191</v>
+      </c>
+      <c r="X14" s="6">
+        <v>190</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.26545454545454544</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39818181818181819</v>
+      </c>
+      <c r="AB14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.3418181818181818</v>
+      </c>
+      <c r="AC14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34727272727272729</v>
+      </c>
+      <c r="AD14" s="7">
+        <f t="shared" si="7"/>
+        <v>0.34545454545454546</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>600</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2523</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
@@ -6942,8 +9577,43 @@
       <c r="R15" s="1">
         <v>3617</v>
       </c>
+      <c r="T15" s="6">
+        <v>187</v>
+      </c>
+      <c r="U15" s="6">
+        <v>236</v>
+      </c>
+      <c r="V15" s="6">
+        <v>205</v>
+      </c>
+      <c r="W15" s="6">
+        <v>208</v>
+      </c>
+      <c r="X15" s="6">
+        <v>203</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.31166666666666665</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="AD15" s="7">
+        <f t="shared" si="7"/>
+        <v>0.33833333333333332</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>650</v>
       </c>
@@ -6971,8 +9641,28 @@
       <c r="R16" s="1">
         <v>3504</v>
       </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <f>X16/A16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>700</v>
       </c>
@@ -7000,10 +9690,33 @@
       <c r="R17" s="1">
         <v>3391</v>
       </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>750</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2124</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
@@ -7029,10 +9742,33 @@
       <c r="R18" s="1">
         <v>3283</v>
       </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>800</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1981</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
@@ -7058,8 +9794,28 @@
       <c r="R19" s="1">
         <v>3177</v>
       </c>
+      <c r="Z19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>850</v>
       </c>
@@ -7087,8 +9843,28 @@
       <c r="R20" s="1">
         <v>3085</v>
       </c>
+      <c r="Z20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>900</v>
       </c>
@@ -7116,8 +9892,28 @@
       <c r="R21" s="1">
         <v>3018</v>
       </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>950</v>
       </c>
@@ -7145,8 +9941,28 @@
       <c r="R22" s="1">
         <v>2897</v>
       </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <f>X22/A22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50</v>
       </c>
@@ -7160,7 +9976,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -7169,7 +9985,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -7178,7 +9994,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200</v>
       </c>
@@ -7187,7 +10003,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>250</v>
       </c>
@@ -7196,7 +10012,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -7317,8 +10133,10 @@
   <sortState ref="A1:B371">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7330,7 +10148,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,7 +10231,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,7 +10286,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7480,6 +10298,12 @@
       <c r="A14" s="1">
         <v>700</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7500,22 +10324,34 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>900</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>950</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>new gentic with n = 800</t>
   </si>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -327,7 +327,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -405,7 +405,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -483,7 +483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -561,7 +561,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -639,7 +639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -655,11 +655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1530395200"/>
-        <c:axId val="-1530402272"/>
+        <c:axId val="946389552"/>
+        <c:axId val="946398256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530395200"/>
+        <c:axId val="946389552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -758,7 +757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530402272"/>
+        <c:crossAx val="946398256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -766,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1530402272"/>
+        <c:axId val="946398256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -881,7 +880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530395200"/>
+        <c:crossAx val="946389552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -895,7 +894,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -963,7 +961,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1089,7 +1087,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1159,7 +1157,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1229,7 +1227,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1299,7 +1297,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1369,7 +1367,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1439,7 +1437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1455,11 +1453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1530401728"/>
-        <c:axId val="-1344993056"/>
+        <c:axId val="946384656"/>
+        <c:axId val="1130017248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530401728"/>
+        <c:axId val="946384656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1494,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1563,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1344993056"/>
+        <c:crossAx val="1130017248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1344993056"/>
+        <c:axId val="1130017248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530401728"/>
+        <c:crossAx val="946384656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,7 +1696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,7 +1763,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1893,7 +1889,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -1963,7 +1959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -1979,11 +1975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1530401728"/>
-        <c:axId val="-1344993056"/>
+        <c:axId val="1130011264"/>
+        <c:axId val="1130011808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530401728"/>
+        <c:axId val="1130011264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2016,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2087,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1344993056"/>
+        <c:crossAx val="1130011808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1344993056"/>
+        <c:axId val="1130011808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530401728"/>
+        <c:crossAx val="1130011264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2223,7 +2218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2291,7 +2285,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2458,17 +2452,23 @@
                 <c:pt idx="11">
                   <c:v>2523</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2462</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>2124</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2579,7 +2579,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2690,7 +2690,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2801,7 +2801,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2912,7 +2912,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2928,11 +2928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1344992512"/>
-        <c:axId val="-1301776576"/>
+        <c:axId val="1130012352"/>
+        <c:axId val="1175341024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1344992512"/>
+        <c:axId val="1130012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +3036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301776576"/>
+        <c:crossAx val="1175341024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3044,7 +3044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1301776576"/>
+        <c:axId val="1175341024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3165,7 +3165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1344992512"/>
+        <c:crossAx val="1130012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,7 +3256,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3380,7 +3380,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3491,7 +3491,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3602,7 +3602,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3713,7 +3713,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3824,7 +3824,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3993,7 +3993,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -4009,11 +4009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1301776032"/>
-        <c:axId val="-1301777120"/>
+        <c:axId val="1175339936"/>
+        <c:axId val="1175347552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1301776032"/>
+        <c:axId val="1175339936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,7 +4056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301777120"/>
+        <c:crossAx val="1175347552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,7 +4064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1301777120"/>
+        <c:axId val="1175347552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1301776032"/>
+        <c:crossAx val="1175339936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4129,7 +4129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8603,8 +8602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,6 +9616,9 @@
       <c r="A16">
         <v>650</v>
       </c>
+      <c r="B16" s="1">
+        <v>2462</v>
+      </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9867,6 +9869,9 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>900</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1706</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
@@ -10148,7 +10153,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,6 +10298,12 @@
       <c r="A13" s="1">
         <v>650</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -10313,7 +10324,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10331,6 +10342,12 @@
       <c r="A17" s="1">
         <v>850</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -10340,7 +10357,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E.Coli" sheetId="1" r:id="rId1"/>
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,7 +204,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -327,7 +330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -405,7 +408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -483,7 +486,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -561,7 +564,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -639,7 +642,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -961,7 +964,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1087,7 +1090,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1157,7 +1160,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1227,7 +1230,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1297,7 +1300,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1367,7 +1370,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1437,7 +1440,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1763,7 +1766,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1889,7 +1892,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -1959,7 +1962,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -2016,6 +2019,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2218,6 +2222,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,7 +2290,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2417,7 +2422,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>4478</c:v>
+                  <c:v>4544</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4220</c:v>
@@ -2468,7 +2473,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2579,7 +2584,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2690,7 +2695,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2801,7 +2806,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2912,7 +2917,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -3256,7 +3261,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3320,10 +3325,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.38</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.28000000000000003</c:v>
@@ -3356,7 +3361,7 @@
                   <c:v>0.31166666666666665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.28153846153846152</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3380,7 +3385,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3467,7 +3472,7 @@
                   <c:v>0.39333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.3923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3491,7 +3496,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3578,7 +3583,7 @@
                   <c:v>0.34166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.33692307692307694</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3602,7 +3607,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3689,7 +3694,7 @@
                   <c:v>0.34666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.33846153846153848</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3713,7 +3718,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3800,7 +3805,7 @@
                   <c:v>0.33833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.33384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3824,7 +3829,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3993,7 +3998,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -4129,6 +4134,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7368,26 +7374,26 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AI2" s="9" t="s">
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AI2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AO2" s="9" t="s">
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AO2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8603,7 +8609,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8632,26 +8638,26 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="T2" s="9" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="T2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Z2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8714,14 +8720,14 @@
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>4478</v>
+        <v>4544</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <f>C4/A4</f>
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="E4">
         <v>23</v>
@@ -8735,7 +8741,7 @@
       </c>
       <c r="H4" s="2">
         <f>G4/C4</f>
-        <v>0.42105263157894735</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K4" s="1">
         <v>4693</v>
@@ -8756,7 +8762,7 @@
         <v>4911</v>
       </c>
       <c r="T4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U4" s="6">
         <v>23</v>
@@ -8772,7 +8778,7 @@
       </c>
       <c r="Z4" s="7">
         <f>T4/A4</f>
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="AA4" s="7">
         <f>U4/A4</f>
@@ -8799,11 +8805,11 @@
         <v>4220</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D22" si="0">C5/A5</f>
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E5">
         <v>44</v>
@@ -8817,7 +8823,7 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H22" si="2">G5/C5</f>
-        <v>0.48571428571428571</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="K5" s="1">
         <v>4484</v>
@@ -8838,7 +8844,7 @@
         <v>4822</v>
       </c>
       <c r="T5" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U5" s="6">
         <v>44</v>
@@ -8854,7 +8860,7 @@
       </c>
       <c r="Z5" s="7">
         <f t="shared" ref="Z5:Z22" si="3">T5/A5</f>
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" ref="AA5:AA22" si="4">U5/A5</f>
@@ -9643,25 +9649,40 @@
       <c r="R16" s="1">
         <v>3504</v>
       </c>
+      <c r="T16" s="8">
+        <v>183</v>
+      </c>
+      <c r="U16" s="8">
+        <v>255</v>
+      </c>
+      <c r="V16" s="8">
+        <v>219</v>
+      </c>
+      <c r="W16" s="8">
+        <v>220</v>
+      </c>
+      <c r="X16" s="8">
+        <v>217</v>
+      </c>
       <c r="Z16" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28153846153846152</v>
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3923076923076923</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33692307692307694</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33846153846153848</v>
       </c>
       <c r="AD16" s="7">
         <f>X16/A16</f>
-        <v>0</v>
+        <v>0.33384615384615385</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\myUniversity\Paper\myPaper\Second Paper\Network_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javad Rezaei\Second Paper\Network_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S.cerevisiae" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>new gentic with n = 800</t>
   </si>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,7 +207,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -242,7 +245,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -253,11 +256,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -330,7 +333,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -346,6 +349,84 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Degree_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>E.Coli!$AD$4:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>E.Coli!$AE$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betweenness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -376,84 +457,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E.Coli!$AD$4:$AD$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1814</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1654</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1478</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2646-4C29-B6D7-97BF37067A82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>E.Coli!$AE$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Betweenness_Centrality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>E.Coli!$AE$4:$AE$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -486,7 +489,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -509,7 +512,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -520,11 +523,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="C00000"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -564,7 +567,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -642,7 +645,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2646-4C29-B6D7-97BF37067A82}"/>
             </c:ext>
@@ -658,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="946389552"/>
-        <c:axId val="946398256"/>
+        <c:axId val="-921069760"/>
+        <c:axId val="-921065952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="946389552"/>
+        <c:axId val="-921069760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,6 +697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -760,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946398256"/>
+        <c:crossAx val="-921065952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -768,7 +772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946398256"/>
+        <c:axId val="-921065952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -883,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946389552"/>
+        <c:crossAx val="-921069760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,6 +901,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -964,7 +969,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1090,7 +1095,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1160,7 +1165,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1230,7 +1235,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1300,7 +1305,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1370,7 +1375,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BEDC-4968-832D-51B0EF2F0D81}"/>
             </c:ext>
@@ -1440,7 +1445,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A32-4D82-94B4-B37052506D12}"/>
             </c:ext>
@@ -1456,11 +1461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="946384656"/>
-        <c:axId val="1130017248"/>
+        <c:axId val="-921068672"/>
+        <c:axId val="-694421984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="946384656"/>
+        <c:axId val="-921068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,6 +1502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1563,7 +1569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130017248"/>
+        <c:crossAx val="-694421984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1130017248"/>
+        <c:axId val="-694421984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946384656"/>
+        <c:crossAx val="-921068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,6 +1705,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1766,7 +1773,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1804,7 +1811,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1815,11 +1822,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1892,7 +1899,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -1907,7 +1914,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1918,11 +1927,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1962,7 +1975,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5222-4D0F-93B2-8C255AAE4675}"/>
             </c:ext>
@@ -1978,11 +1991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1130011264"/>
-        <c:axId val="1130011808"/>
+        <c:axId val="-694421440"/>
+        <c:axId val="-694420896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1130011264"/>
+        <c:axId val="-694421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130011808"/>
+        <c:crossAx val="-694420896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2094,9 +2107,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1130011808"/>
+        <c:axId val="-694420896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2208,7 +2222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130011264"/>
+        <c:crossAx val="-694421440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,7 +2236,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29682837853435518"/>
+          <c:y val="4.8506944444444443E-2"/>
+          <c:w val="0.4106736447749178"/>
+          <c:h val="6.1196354166666668E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2290,7 +2313,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2311,9 +2334,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10774980404821896"/>
-          <c:y val="3.7353700235619763E-2"/>
+          <c:y val="0.15419669763501784"/>
           <c:w val="0.87648195309680133"/>
-          <c:h val="0.80760949185149322"/>
+          <c:h val="0.69076643197378118"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2324,6 +2347,294 @@
           <c:order val="0"/>
           <c:tx>
             <c:v>Genetic Algorithm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$O$4:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S.cerevisiae!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betweenness_Centrality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2349,146 +2660,89 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
+              <c:f>S.cerevisiae!$P$4:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>4601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>4391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>4205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>4071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>3785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>3647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>3378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>3239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600</c:v>
+                  <c:v>2987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650</c:v>
+                  <c:v>2863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>750</c:v>
+                  <c:v>2581</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>800</c:v>
+                  <c:v>2464</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850</c:v>
+                  <c:v>2312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900</c:v>
+                  <c:v>2180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>S.cerevisiae!$B$4:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4544</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4220</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3836</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3464</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3039</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2857</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2523</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2462</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2124</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1706</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0755-4648-AB7D-CFC24D4BE704}"/>
+              <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>S.cerevisiae!$O$3</c:f>
+              <c:f>S.cerevisiae!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Degree_Centrality</c:v>
+                  <c:v>Closeness_Centrality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2519,228 +2773,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>S.cerevisiae!$O$4:$O$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4693</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4218</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4087</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3953</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3827</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3570</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3438</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3307</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3168</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2883</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2727</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2563</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2433</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2094</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0755-4648-AB7D-CFC24D4BE704}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>S.cerevisiae!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Betweenness_Centrality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>S.cerevisiae!$P$4:$P$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4391</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4205</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4071</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3935</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3785</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3647</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3510</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3378</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3122</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2716</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2581</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2312</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0755-4648-AB7D-CFC24D4BE704}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>S.cerevisiae!$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Closeness_Centrality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>S.cerevisiae!$Q$4:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2806,7 +2838,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2917,7 +2949,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0755-4648-AB7D-CFC24D4BE704}"/>
             </c:ext>
@@ -2933,11 +2965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1130012352"/>
-        <c:axId val="1175341024"/>
+        <c:axId val="-694420352"/>
+        <c:axId val="-650792608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1130012352"/>
+        <c:axId val="-694420352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1175341024"/>
+        <c:crossAx val="-650792608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3049,11 +3081,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1175341024"/>
+        <c:axId val="-650792608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
-          <c:min val="1500"/>
+          <c:min val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3106,8 +3138,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.6133694670280035E-3"/>
-              <c:y val="6.9306407901543951E-2"/>
+              <c:x val="7.94162407873838E-3"/>
+              <c:y val="0.16189903345415158"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3170,7 +3202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130012352"/>
+        <c:crossAx val="-694420352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3183,17 +3215,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.1640387418221887E-2"/>
-          <c:y val="0.7646947612561088"/>
-          <c:w val="0.85543220410142218"/>
-          <c:h val="0.11333652769414568"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3261,7 +3284,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3364,28 +3387,28 @@
                   <c:v>0.28153846153846152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.30142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.29066666666666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.29249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.29764705882352943</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.30666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.29894736842105263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3475,28 +3498,28 @@
                   <c:v>0.3923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.39714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.39466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.39250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.38705882352941179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.38666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.37789473684210528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3586,28 +3609,28 @@
                   <c:v>0.33692307692307694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.33285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.32750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.32705882352941179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.31888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.31789473684210529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3697,28 +3720,28 @@
                   <c:v>0.33846153846153848</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.33142857142857141</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.33124999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.32470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.32555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.32842105263157895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3808,28 +3831,28 @@
                   <c:v>0.33384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.33714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.33466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.33750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.34235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.34111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.33789473684210525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-72E6-4395-90A8-F177BBD9550A}"/>
             </c:ext>
@@ -3998,7 +4021,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD7E-4ECF-8DD0-4021FDD54143}"/>
             </c:ext>
@@ -4014,11 +4037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1175339936"/>
-        <c:axId val="1175347552"/>
+        <c:axId val="-650800768"/>
+        <c:axId val="-650802400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1175339936"/>
+        <c:axId val="-650800768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,7 +4084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1175347552"/>
+        <c:crossAx val="-650802400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4069,7 +4092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1175347552"/>
+        <c:axId val="-650802400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1175339936"/>
+        <c:crossAx val="-650800768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4189,6 +4212,711 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9031023864870352E-2"/>
+          <c:y val="0.14781458333333336"/>
+          <c:w val="0.87317055596078719"/>
+          <c:h val="0.70384861111111108"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Genetic_Algorithm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$Z$4:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26545454545454544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28153846153846152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29066666666666668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29764705882352943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29894736842105263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5222-4D0F-93B2-8C255AAE4675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Random_Sample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>S.cerevisiae!$A$4:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>S.cerevisiae!$D$27:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5222-4D0F-93B2-8C255AAE4675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-650802944"/>
+        <c:axId val="-650801856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-650802944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Removed Nodes (B)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-650801856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-650801856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percentage of Essential Proteins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.120110009068487E-2"/>
+              <c:y val="0.22812447916666667"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-650802944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29682837853435518"/>
+          <c:y val="4.8506944444444443E-2"/>
+          <c:w val="0.4106736447749178"/>
+          <c:h val="6.1196354166666668E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4401,6 +5129,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6414,6 +7182,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6980,14 +8251,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>612869</xdr:colOff>
+      <xdr:colOff>702563</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
@@ -7023,10 +8294,10 @@
       <xdr:rowOff>127225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>40357</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>815182</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>172945</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7070,6 +8341,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>148382</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>121200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7343,8 +8646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView topLeftCell="P67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="D25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA86" sqref="AA86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7374,26 +8677,26 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AI2" s="10" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AI2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AO2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8608,8 +9911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="M31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8638,26 +9941,26 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="T2" s="10" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="T2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Z2" s="10" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8666,12 +9969,6 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
       <c r="O3" s="6" t="s">
         <v>21</v>
       </c>
@@ -8722,33 +10019,9 @@
       <c r="B4" s="1">
         <v>4544</v>
       </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4/A4</f>
-        <v>0.26</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <f>E4/A4</f>
-        <v>0.46</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <f>G4/C4</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4693</v>
-      </c>
-      <c r="M4">
-        <v>4692</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="O4" s="1">
         <v>4693</v>
       </c>
@@ -8804,33 +10077,9 @@
       <c r="B5" s="1">
         <v>4220</v>
       </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D22" si="0">C5/A5</f>
-        <v>0.33</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F22" si="1">E5/A5</f>
-        <v>0.44</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ref="H5:H22" si="2">G5/C5</f>
-        <v>0.51515151515151514</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4484</v>
-      </c>
-      <c r="M5">
-        <v>4498</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="O5" s="1">
         <v>4484</v>
       </c>
@@ -8859,23 +10108,23 @@
         <v>36</v>
       </c>
       <c r="Z5" s="7">
-        <f t="shared" ref="Z5:Z22" si="3">T5/A5</f>
+        <f t="shared" ref="Z5:Z22" si="0">T5/A5</f>
         <v>0.33</v>
       </c>
       <c r="AA5" s="7">
-        <f t="shared" ref="AA5:AA22" si="4">U5/A5</f>
+        <f t="shared" ref="AA5:AA22" si="1">U5/A5</f>
         <v>0.44</v>
       </c>
       <c r="AB5" s="7">
-        <f t="shared" ref="AB5:AB22" si="5">V5/A5</f>
+        <f t="shared" ref="AB5:AB22" si="2">V5/A5</f>
         <v>0.45</v>
       </c>
       <c r="AC5" s="7">
-        <f t="shared" ref="AC5:AC22" si="6">W5/A5</f>
+        <f t="shared" ref="AC5:AC22" si="3">W5/A5</f>
         <v>0.47</v>
       </c>
       <c r="AD5" s="7">
-        <f t="shared" ref="AD5:AD21" si="7">X5/A5</f>
+        <f t="shared" ref="AD5:AD21" si="4">X5/A5</f>
         <v>0.36</v>
       </c>
     </row>
@@ -8886,78 +10135,54 @@
       <c r="B6" s="1">
         <v>4017</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="O6" s="1">
+        <v>4359</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4205</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4448</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4738</v>
+      </c>
+      <c r="T6" s="6">
         <v>42</v>
       </c>
-      <c r="D6" s="2">
+      <c r="U6" s="6">
+        <v>66</v>
+      </c>
+      <c r="V6" s="6">
+        <v>61</v>
+      </c>
+      <c r="W6" s="6">
+        <v>63</v>
+      </c>
+      <c r="X6" s="6">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="7">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E6">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="AA6" s="7">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="AB6" s="7">
         <f t="shared" si="2"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4358</v>
-      </c>
-      <c r="M6">
-        <v>4315</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4359</v>
-      </c>
-      <c r="P6" s="1">
-        <v>4205</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>4448</v>
-      </c>
-      <c r="R6" s="1">
-        <v>4738</v>
-      </c>
-      <c r="T6" s="6">
-        <v>42</v>
-      </c>
-      <c r="U6" s="6">
-        <v>66</v>
-      </c>
-      <c r="V6" s="6">
-        <v>61</v>
-      </c>
-      <c r="W6" s="6">
-        <v>63</v>
-      </c>
-      <c r="X6" s="6">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="7">
+        <v>0.40666666666666668</v>
+      </c>
+      <c r="AC6" s="7">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA6" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="AD6" s="7">
         <f t="shared" si="4"/>
-        <v>0.44</v>
-      </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.40666666666666668</v>
-      </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.42</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="7"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
@@ -8968,75 +10193,54 @@
       <c r="B7" s="1">
         <v>3836</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="O7" s="1">
+        <v>4218</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4071</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4337</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4581</v>
+      </c>
+      <c r="T7" s="6">
         <v>61</v>
       </c>
-      <c r="D7" s="2">
+      <c r="U7" s="6">
+        <v>79</v>
+      </c>
+      <c r="V7" s="6">
+        <v>77</v>
+      </c>
+      <c r="W7" s="6">
+        <v>81</v>
+      </c>
+      <c r="X7" s="6">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="7">
         <f t="shared" si="0"/>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E7">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="AA7" s="7">
         <f t="shared" si="1"/>
         <v>0.39500000000000002</v>
       </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="AB7" s="7">
         <f t="shared" si="2"/>
-        <v>0.45901639344262296</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4215</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4218</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4071</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4337</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4581</v>
-      </c>
-      <c r="T7" s="6">
-        <v>61</v>
-      </c>
-      <c r="U7" s="6">
-        <v>79</v>
-      </c>
-      <c r="V7" s="6">
-        <v>77</v>
-      </c>
-      <c r="W7" s="6">
-        <v>81</v>
-      </c>
-      <c r="X7" s="6">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AC7" s="7">
         <f t="shared" si="3"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="AA7" s="7">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AD7" s="7">
         <f t="shared" si="4"/>
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="AB7" s="7">
-        <f t="shared" si="5"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="AC7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="7"/>
         <v>0.36499999999999999</v>
       </c>
     </row>
@@ -9047,75 +10251,54 @@
       <c r="B8" s="1">
         <v>3663</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="O8" s="1">
+        <v>4087</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3935</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4194</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4490</v>
+      </c>
+      <c r="T8" s="6">
         <v>78</v>
       </c>
-      <c r="D8" s="2">
+      <c r="U8" s="6">
+        <v>98</v>
+      </c>
+      <c r="V8" s="6">
+        <v>94</v>
+      </c>
+      <c r="W8" s="6">
+        <v>95</v>
+      </c>
+      <c r="X8" s="6">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="7">
         <f t="shared" si="0"/>
         <v>0.312</v>
       </c>
-      <c r="E8">
-        <v>98</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="AA8" s="7">
         <f t="shared" si="1"/>
         <v>0.39200000000000002</v>
       </c>
-      <c r="G8">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="AB8" s="7">
         <f t="shared" si="2"/>
-        <v>0.52564102564102566</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4087</v>
-      </c>
-      <c r="P8" s="1">
-        <v>3935</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>4194</v>
-      </c>
-      <c r="R8" s="1">
-        <v>4490</v>
-      </c>
-      <c r="T8" s="6">
-        <v>78</v>
-      </c>
-      <c r="U8" s="6">
-        <v>98</v>
-      </c>
-      <c r="V8" s="6">
-        <v>94</v>
-      </c>
-      <c r="W8" s="6">
-        <v>95</v>
-      </c>
-      <c r="X8" s="6">
-        <v>90</v>
-      </c>
-      <c r="Z8" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="AC8" s="7">
         <f t="shared" si="3"/>
-        <v>0.312</v>
-      </c>
-      <c r="AA8" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AD8" s="7">
         <f t="shared" si="4"/>
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="AB8" s="7">
-        <f t="shared" si="5"/>
-        <v>0.376</v>
-      </c>
-      <c r="AC8" s="7">
-        <f t="shared" si="6"/>
-        <v>0.38</v>
-      </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
     </row>
@@ -9126,75 +10309,54 @@
       <c r="B9" s="1">
         <v>3464</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="O9" s="1">
+        <v>3953</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3785</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4092</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4376</v>
+      </c>
+      <c r="T9" s="6">
         <v>93</v>
       </c>
-      <c r="D9" s="2">
+      <c r="U9" s="6">
+        <v>118</v>
+      </c>
+      <c r="V9" s="6">
+        <v>108</v>
+      </c>
+      <c r="W9" s="6">
+        <v>105</v>
+      </c>
+      <c r="X9" s="6">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="7">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="E9">
-        <v>117</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="AA9" s="7">
         <f t="shared" si="1"/>
-        <v>0.39</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="AB9" s="7">
         <f t="shared" si="2"/>
-        <v>0.5376344086021505</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3952</v>
-      </c>
-      <c r="O9" s="1">
-        <v>3953</v>
-      </c>
-      <c r="P9" s="1">
-        <v>3785</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>4092</v>
-      </c>
-      <c r="R9" s="1">
-        <v>4376</v>
-      </c>
-      <c r="T9" s="6">
-        <v>93</v>
-      </c>
-      <c r="U9" s="6">
-        <v>118</v>
-      </c>
-      <c r="V9" s="6">
-        <v>108</v>
-      </c>
-      <c r="W9" s="6">
-        <v>105</v>
-      </c>
-      <c r="X9" s="6">
-        <v>108</v>
-      </c>
-      <c r="Z9" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AC9" s="7">
         <f t="shared" si="3"/>
-        <v>0.31</v>
-      </c>
-      <c r="AA9" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AD9" s="7">
         <f t="shared" si="4"/>
-        <v>0.39333333333333331</v>
-      </c>
-      <c r="AB9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.36</v>
-      </c>
-      <c r="AC9" s="7">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
     </row>
@@ -9205,18 +10367,9 @@
       <c r="B10" s="1">
         <v>3356</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="O10" s="1">
         <v>3827</v>
       </c>
@@ -9245,23 +10398,23 @@
         <v>123</v>
       </c>
       <c r="Z10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26857142857142857</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.37714285714285717</v>
+      </c>
+      <c r="AC10" s="7">
         <f t="shared" si="3"/>
-        <v>0.26857142857142857</v>
-      </c>
-      <c r="AA10" s="7">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="AD10" s="7">
         <f t="shared" si="4"/>
-        <v>0.38</v>
-      </c>
-      <c r="AB10" s="7">
-        <f t="shared" si="5"/>
-        <v>0.37714285714285717</v>
-      </c>
-      <c r="AC10" s="7">
-        <f t="shared" si="6"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="7"/>
         <v>0.35142857142857142</v>
       </c>
     </row>
@@ -9272,72 +10425,54 @@
       <c r="B11" s="1">
         <v>3147</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="O11" s="1">
+        <v>3701</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3510</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3876</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4119</v>
+      </c>
+      <c r="T11" s="6">
         <v>121</v>
       </c>
-      <c r="D11" s="2">
+      <c r="U11" s="6">
+        <v>152</v>
+      </c>
+      <c r="V11" s="6">
+        <v>146</v>
+      </c>
+      <c r="W11" s="6">
+        <v>142</v>
+      </c>
+      <c r="X11" s="6">
+        <v>140</v>
+      </c>
+      <c r="Z11" s="7">
         <f t="shared" si="0"/>
         <v>0.30249999999999999</v>
       </c>
-      <c r="E11">
-        <v>151</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="AA11" s="7">
         <f t="shared" si="1"/>
-        <v>0.3775</v>
-      </c>
-      <c r="G11">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="AB11" s="7">
         <f t="shared" si="2"/>
-        <v>0.55371900826446285</v>
-      </c>
-      <c r="O11" s="1">
-        <v>3701</v>
-      </c>
-      <c r="P11" s="1">
-        <v>3510</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>3876</v>
-      </c>
-      <c r="R11" s="1">
-        <v>4119</v>
-      </c>
-      <c r="T11" s="6">
-        <v>121</v>
-      </c>
-      <c r="U11" s="6">
-        <v>152</v>
-      </c>
-      <c r="V11" s="6">
-        <v>146</v>
-      </c>
-      <c r="W11" s="6">
-        <v>142</v>
-      </c>
-      <c r="X11" s="6">
-        <v>140</v>
-      </c>
-      <c r="Z11" s="7">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AC11" s="7">
         <f t="shared" si="3"/>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="AA11" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AD11" s="7">
         <f t="shared" si="4"/>
-        <v>0.38</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" si="5"/>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AC11" s="7">
-        <f t="shared" si="6"/>
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
     </row>
@@ -9348,72 +10483,54 @@
       <c r="B12" s="1">
         <v>3039</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="O12" s="1">
+        <v>3570</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3378</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3764</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4013</v>
+      </c>
+      <c r="T12" s="6">
         <v>129</v>
       </c>
-      <c r="D12" s="2">
+      <c r="U12" s="6">
+        <v>173</v>
+      </c>
+      <c r="V12" s="6">
+        <v>161</v>
+      </c>
+      <c r="W12" s="6">
+        <v>162</v>
+      </c>
+      <c r="X12" s="6">
+        <v>158</v>
+      </c>
+      <c r="Z12" s="7">
         <f t="shared" si="0"/>
         <v>0.28666666666666668</v>
       </c>
-      <c r="E12">
-        <v>171</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="AA12" s="7">
         <f t="shared" si="1"/>
-        <v>0.38</v>
-      </c>
-      <c r="G12">
-        <v>71</v>
-      </c>
-      <c r="H12" s="2">
+        <v>0.38444444444444442</v>
+      </c>
+      <c r="AB12" s="7">
         <f t="shared" si="2"/>
-        <v>0.55038759689922478</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3570</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3378</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>3764</v>
-      </c>
-      <c r="R12" s="1">
-        <v>4013</v>
-      </c>
-      <c r="T12" s="6">
-        <v>129</v>
-      </c>
-      <c r="U12" s="6">
-        <v>173</v>
-      </c>
-      <c r="V12" s="6">
-        <v>161</v>
-      </c>
-      <c r="W12" s="6">
-        <v>162</v>
-      </c>
-      <c r="X12" s="6">
-        <v>158</v>
-      </c>
-      <c r="Z12" s="7">
+        <v>0.35777777777777775</v>
+      </c>
+      <c r="AC12" s="7">
         <f t="shared" si="3"/>
-        <v>0.28666666666666668</v>
-      </c>
-      <c r="AA12" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AD12" s="7">
         <f t="shared" si="4"/>
-        <v>0.38444444444444442</v>
-      </c>
-      <c r="AB12" s="7">
-        <f t="shared" si="5"/>
-        <v>0.35777777777777775</v>
-      </c>
-      <c r="AC12" s="7">
-        <f t="shared" si="6"/>
-        <v>0.36</v>
-      </c>
-      <c r="AD12" s="7">
-        <f t="shared" si="7"/>
         <v>0.3511111111111111</v>
       </c>
     </row>
@@ -9424,18 +10541,9 @@
       <c r="B13" s="1">
         <v>2857</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="O13" s="1">
         <v>3438</v>
       </c>
@@ -9464,23 +10572,23 @@
         <v>179</v>
       </c>
       <c r="Z13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AC13" s="7">
         <f t="shared" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="AA13" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AD13" s="7">
         <f t="shared" si="4"/>
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="5"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="AC13" s="7">
-        <f t="shared" si="6"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="7"/>
         <v>0.35799999999999998</v>
       </c>
     </row>
@@ -9491,18 +10599,9 @@
       <c r="B14" s="1">
         <v>2699</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="O14" s="1">
         <v>3307</v>
       </c>
@@ -9531,23 +10630,23 @@
         <v>190</v>
       </c>
       <c r="Z14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26545454545454544</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39818181818181819</v>
+      </c>
+      <c r="AB14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.3418181818181818</v>
+      </c>
+      <c r="AC14" s="7">
         <f t="shared" si="3"/>
-        <v>0.26545454545454544</v>
-      </c>
-      <c r="AA14" s="7">
+        <v>0.34727272727272729</v>
+      </c>
+      <c r="AD14" s="7">
         <f t="shared" si="4"/>
-        <v>0.39818181818181819</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" si="5"/>
-        <v>0.3418181818181818</v>
-      </c>
-      <c r="AC14" s="7">
-        <f t="shared" si="6"/>
-        <v>0.34727272727272729</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="7"/>
         <v>0.34545454545454546</v>
       </c>
     </row>
@@ -9558,18 +10657,9 @@
       <c r="B15" s="1">
         <v>2523</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="O15" s="1">
         <v>3168</v>
       </c>
@@ -9598,23 +10688,23 @@
         <v>203</v>
       </c>
       <c r="Z15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31166666666666665</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="AC15" s="7">
         <f t="shared" si="3"/>
-        <v>0.31166666666666665</v>
-      </c>
-      <c r="AA15" s="7">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="AD15" s="7">
         <f t="shared" si="4"/>
-        <v>0.39333333333333331</v>
-      </c>
-      <c r="AB15" s="7">
-        <f t="shared" si="5"/>
-        <v>0.34166666666666667</v>
-      </c>
-      <c r="AC15" s="7">
-        <f t="shared" si="6"/>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="AD15" s="7">
-        <f t="shared" si="7"/>
         <v>0.33833333333333332</v>
       </c>
     </row>
@@ -9625,18 +10715,9 @@
       <c r="B16" s="1">
         <v>2462</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="O16" s="1">
         <v>3025</v>
       </c>
@@ -9665,19 +10746,19 @@
         <v>217</v>
       </c>
       <c r="Z16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.28153846153846152</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3923076923076923</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33692307692307694</v>
+      </c>
+      <c r="AC16" s="7">
         <f t="shared" si="3"/>
-        <v>0.28153846153846152</v>
-      </c>
-      <c r="AA16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.3923076923076923</v>
-      </c>
-      <c r="AB16" s="7">
-        <f t="shared" si="5"/>
-        <v>0.33692307692307694</v>
-      </c>
-      <c r="AC16" s="7">
-        <f t="shared" si="6"/>
         <v>0.33846153846153848</v>
       </c>
       <c r="AD16" s="7">
@@ -9689,18 +10770,12 @@
       <c r="A17">
         <v>700</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B17" s="1">
+        <v>2309</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="2"/>
       <c r="O17" s="1">
         <v>2883</v>
       </c>
@@ -9713,25 +10788,40 @@
       <c r="R17" s="1">
         <v>3391</v>
       </c>
+      <c r="T17" s="9">
+        <v>211</v>
+      </c>
+      <c r="U17" s="9">
+        <v>278</v>
+      </c>
+      <c r="V17" s="9">
+        <v>233</v>
+      </c>
+      <c r="W17" s="9">
+        <v>232</v>
+      </c>
+      <c r="X17" s="9">
+        <v>236</v>
+      </c>
       <c r="Z17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.30142857142857143</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39714285714285713</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33285714285714285</v>
+      </c>
+      <c r="AC17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
+        <v>0.33142857142857141</v>
+      </c>
+      <c r="AD17" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.33714285714285713</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -9741,18 +10831,9 @@
       <c r="B18" s="1">
         <v>2124</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="2"/>
       <c r="O18" s="1">
         <v>2727</v>
       </c>
@@ -9765,25 +10846,40 @@
       <c r="R18" s="1">
         <v>3283</v>
       </c>
+      <c r="T18" s="9">
+        <v>218</v>
+      </c>
+      <c r="U18" s="9">
+        <v>296</v>
+      </c>
+      <c r="V18" s="9">
+        <v>249</v>
+      </c>
+      <c r="W18" s="9">
+        <v>246</v>
+      </c>
+      <c r="X18" s="9">
+        <v>251</v>
+      </c>
       <c r="Z18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29066666666666668</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39466666666666667</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AC18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AD18" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.33466666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -9793,18 +10889,9 @@
       <c r="B19" s="1">
         <v>1981</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="2"/>
       <c r="O19" s="1">
         <v>2563</v>
       </c>
@@ -9817,43 +10904,52 @@
       <c r="R19" s="1">
         <v>3177</v>
       </c>
+      <c r="T19" s="9">
+        <v>234</v>
+      </c>
+      <c r="U19" s="9">
+        <v>314</v>
+      </c>
+      <c r="V19" s="9">
+        <v>262</v>
+      </c>
+      <c r="W19" s="9">
+        <v>265</v>
+      </c>
+      <c r="X19" s="9">
+        <v>270</v>
+      </c>
       <c r="Z19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AC19" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="AD19" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.33750000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>850</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B20" s="1">
+        <v>1866</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="2"/>
       <c r="O20" s="1">
         <v>2433</v>
       </c>
@@ -9866,25 +10962,40 @@
       <c r="R20" s="1">
         <v>3085</v>
       </c>
+      <c r="T20" s="9">
+        <v>253</v>
+      </c>
+      <c r="U20" s="9">
+        <v>329</v>
+      </c>
+      <c r="V20" s="9">
+        <v>278</v>
+      </c>
+      <c r="W20" s="9">
+        <v>276</v>
+      </c>
+      <c r="X20" s="9">
+        <v>291</v>
+      </c>
       <c r="Z20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29764705882352943</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38705882352941179</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32705882352941179</v>
+      </c>
+      <c r="AC20" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
+        <v>0.32470588235294118</v>
+      </c>
+      <c r="AD20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.34235294117647058</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -9894,18 +11005,9 @@
       <c r="B21" s="1">
         <v>1706</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="2"/>
       <c r="O21" s="1">
         <v>2273</v>
       </c>
@@ -9918,43 +11020,52 @@
       <c r="R21" s="1">
         <v>3018</v>
       </c>
+      <c r="T21" s="9">
+        <v>276</v>
+      </c>
+      <c r="U21" s="9">
+        <v>348</v>
+      </c>
+      <c r="V21" s="9">
+        <v>287</v>
+      </c>
+      <c r="W21" s="9">
+        <v>293</v>
+      </c>
+      <c r="X21" s="9">
+        <v>307</v>
+      </c>
       <c r="Z21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.31888888888888889</v>
+      </c>
+      <c r="AC21" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
+        <v>0.32555555555555554</v>
+      </c>
+      <c r="AD21" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.34111111111111109</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>950</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B22" s="1">
+        <v>1437</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="2"/>
       <c r="O22" s="1">
         <v>2094</v>
       </c>
@@ -9967,25 +11078,40 @@
       <c r="R22" s="1">
         <v>2897</v>
       </c>
+      <c r="T22" s="9">
+        <v>284</v>
+      </c>
+      <c r="U22" s="9">
+        <v>359</v>
+      </c>
+      <c r="V22" s="9">
+        <v>302</v>
+      </c>
+      <c r="W22" s="9">
+        <v>312</v>
+      </c>
+      <c r="X22" s="9">
+        <v>321</v>
+      </c>
       <c r="Z22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29894736842105263</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37789473684210528</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.31789473684210529</v>
+      </c>
+      <c r="AC22" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.32842105263157895</v>
       </c>
       <c r="AD22" s="7">
         <f>X22/A22</f>
-        <v>0</v>
+        <v>0.33789473684210525</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">

--- a/Running Results.xlsx
+++ b/Running Results.xlsx
@@ -661,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-921069760"/>
-        <c:axId val="-921065952"/>
+        <c:axId val="832078208"/>
+        <c:axId val="832078752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-921069760"/>
+        <c:axId val="832078208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -764,7 +763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-921065952"/>
+        <c:crossAx val="832078752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-921065952"/>
+        <c:axId val="832078752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -887,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-921069760"/>
+        <c:crossAx val="832078208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -901,7 +900,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1461,11 +1459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-921068672"/>
-        <c:axId val="-694421984"/>
+        <c:axId val="832079296"/>
+        <c:axId val="647602400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-921068672"/>
+        <c:axId val="832079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1569,7 +1566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694421984"/>
+        <c:crossAx val="647602400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1577,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-694421984"/>
+        <c:axId val="647602400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-921068672"/>
+        <c:crossAx val="832079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,7 +1702,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1991,11 +1987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-694421440"/>
-        <c:axId val="-694420896"/>
+        <c:axId val="647605120"/>
+        <c:axId val="647607840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-694421440"/>
+        <c:axId val="647605120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2028,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2099,7 +2094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694420896"/>
+        <c:crossAx val="647607840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-694420896"/>
+        <c:axId val="647607840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -2222,7 +2217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694421440"/>
+        <c:crossAx val="647605120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,7 +2341,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Genetic Algorithm</c:v>
+            <c:strRef>
+              <c:f>S.cerevisiae!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2965,11 +2968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-694420352"/>
-        <c:axId val="-650792608"/>
+        <c:axId val="877597776"/>
+        <c:axId val="877586896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-694420352"/>
+        <c:axId val="877597776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,7 +3076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-650792608"/>
+        <c:crossAx val="877586896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3081,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-650792608"/>
+        <c:axId val="877586896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3202,7 +3205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694420352"/>
+        <c:crossAx val="877597776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4037,11 +4040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-650800768"/>
-        <c:axId val="-650802400"/>
+        <c:axId val="877593424"/>
+        <c:axId val="877587440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-650800768"/>
+        <c:axId val="877593424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-650802400"/>
+        <c:crossAx val="877587440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4092,7 +4095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-650802400"/>
+        <c:axId val="877587440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +4146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-650800768"/>
+        <c:crossAx val="877593424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4608,11 +4611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-650802944"/>
-        <c:axId val="-650801856"/>
+        <c:axId val="877585808"/>
+        <c:axId val="877598320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-650802944"/>
+        <c:axId val="877585808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4716,7 +4719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-650801856"/>
+        <c:crossAx val="877598320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4724,7 +4727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-650801856"/>
+        <c:axId val="877598320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.15000000000000002"/>
@@ -4839,7 +4842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-650802944"/>
+        <c:crossAx val="877585808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9911,7 +9914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
